--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2211289.468205551</v>
+        <v>-2213737.701284604</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>313.7368842351933</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>151.9487759188978</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>236.6964580565849</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.43941339835957</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.661496316178998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107.2515085550984</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>66.95575205799456</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9327888676787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>243.8552857033591</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>240.2900106025118</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>95.29787616176765</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>84.22139172498684</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.038408879119609</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>133.4004220955974</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>36.22228474784302</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>122.1318257585953</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>25.8965843185424</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>92.48904074021901</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.5261614314816</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.11446803362998</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912466</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2953,7 +2953,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996205</v>
       </c>
       <c r="E31" t="n">
         <v>99.45882602797661</v>
@@ -3007,7 +3007,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.162506705236</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
         <v>239.5478617179984</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3794,7 +3794,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>778.8563779663787</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>778.8563779663787</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>778.8563779663787</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>778.8563779663787</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>778.8563779663787</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>360.8925698645655</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1555.595550006312</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1165.4562180305</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3247150619588</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2033.507950650697</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>2215.156415480937</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>2215.156415480937</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>2215.156415480937</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.9731798921986</v>
+        <v>2215.156415480937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.100961840373</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>602.2357505751251</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.435818966735</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.9896501033331</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>97.9896501033331</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>97.9896501033331</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>97.9896501033331</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>97.9896501033331</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>97.9896501033331</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.9896501033331</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.223260609829</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="C8" t="n">
-        <v>829.2607436694175</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="D8" t="n">
-        <v>470.995045062667</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="E8" t="n">
-        <v>470.995045062667</v>
+        <v>1198.885956298519</v>
       </c>
       <c r="F8" t="n">
-        <v>464.0495443134635</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>450.1261402520544</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>494.9102127870964</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y10" t="n">
-        <v>494.9102127870964</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,10 +5027,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427196</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196075</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926782</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353827</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1538.811765613057</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1284.12727740717</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.12727740717</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.137726509153</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3451473656224</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>875.4238276939707</v>
+        <v>691.9807557475963</v>
       </c>
       <c r="C16" t="n">
-        <v>706.4876447660638</v>
+        <v>691.9807557475963</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>691.9807557475963</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>544.0676621652032</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>397.1777146672928</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>229.4748780420117</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U16" t="n">
-        <v>1419.525485936818</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.840997730931</v>
+        <v>1611.828520656344</v>
       </c>
       <c r="W16" t="n">
-        <v>875.4238276939707</v>
+        <v>1322.411350619383</v>
       </c>
       <c r="X16" t="n">
-        <v>875.4238276939707</v>
+        <v>1094.421799721366</v>
       </c>
       <c r="Y16" t="n">
-        <v>875.4238276939707</v>
+        <v>873.629220577836</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,13 +5631,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>583.5523174165364</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C19" t="n">
-        <v>583.5523174165364</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165364</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.5523174165364</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5850,19 +5850,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>692.2950589102006</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>523.3588759822937</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>373.242236569958</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>373.242236569958</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U22" t="n">
-        <v>1664.764256700866</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V22" t="n">
-        <v>1410.079768494979</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W22" t="n">
-        <v>1120.662598458018</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.662598458018</v>
+        <v>1094.73610288397</v>
       </c>
       <c r="Y22" t="n">
-        <v>1120.662598458018</v>
+        <v>873.9435237404404</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416727</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2046325160457</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4370786819769</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6166,13 +6166,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R25" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T25" t="n">
         <v>1967.452490122057</v>
@@ -6181,16 +6181,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X25" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036727</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
         <v>800.7468040499225</v>
@@ -6409,7 +6409,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>806.1613418786371</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1670.680157531992</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2649.23046036182</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4214.71332733116</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,16 +6558,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
         <v>564.3616113774093</v>
@@ -6616,7 +6616,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6886,7 +6886,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
         <v>1725.799256195773</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6947,7 +6947,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6962,25 +6962,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,40 +7160,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,22 +7202,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
         <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,10 +7330,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7388,7 +7388,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7412,22 +7412,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2782.232616025903</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7442,13 +7442,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819755</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195773</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600127</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272052</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330834</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,16 +7725,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
         <v>1715.000032008794</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,37 +7807,37 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490199</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>374.169394802193</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>248.8400772687159</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>288.0478149561023</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>354.4836849406605</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>189.7998007892634</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>192.9047586887105</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>374.169394802195</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>370.451600472953</v>
       </c>
       <c r="N41" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>411.0304280898976</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>68.19348583706852</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.9739968454593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>186.5035840362052</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9231570359158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>282.1734293264932</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>85.18423125649741</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>108.5327301664778</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0800124470176</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>122.71888869967</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.7227974653939</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>132.8948865914496</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>217.0973701719829</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.399148254162333e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-8.029132914089132e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34362.7578359307</v>
+        <v>34362.75783593069</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321417</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="E2" t="n">
-        <v>39708.1786886983</v>
+        <v>39708.17868869831</v>
       </c>
       <c r="F2" t="n">
         <v>39708.17868869831</v>
       </c>
       <c r="G2" t="n">
-        <v>39708.17868869832</v>
+        <v>39708.17868869831</v>
       </c>
       <c r="H2" t="n">
-        <v>39708.17868869831</v>
+        <v>39708.17868869829</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
@@ -26338,22 +26338,22 @@
         <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321409</v>
       </c>
       <c r="L2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.4923191899</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
         <v>33605.65329740899</v>
@@ -26448,16 +26448,16 @@
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.653297409</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745451.8923638257</v>
+        <v>-745786.3588966898</v>
       </c>
       <c r="C6" t="n">
         <v>-225155.6764273233</v>
@@ -26528,40 +26528,40 @@
         <v>-225155.6764273233</v>
       </c>
       <c r="E6" t="n">
-        <v>-802201.2458776121</v>
+        <v>-802268.4413678376</v>
       </c>
       <c r="F6" t="n">
-        <v>-74823.83188420525</v>
+        <v>-74891.02737443101</v>
       </c>
       <c r="G6" t="n">
-        <v>-74823.83188420528</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="H6" t="n">
-        <v>-74823.83188420528</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="I6" t="n">
         <v>-130466.345113171</v>
       </c>
       <c r="J6" t="n">
-        <v>-269309.4550108899</v>
+        <v>-269309.4550108898</v>
       </c>
       <c r="K6" t="n">
-        <v>-92886.2358182969</v>
+        <v>-92886.23581829702</v>
       </c>
       <c r="L6" t="n">
         <v>-92886.2358182969</v>
       </c>
       <c r="M6" t="n">
-        <v>-222528.5506572416</v>
+        <v>-222528.5506572418</v>
       </c>
       <c r="N6" t="n">
-        <v>-130466.345113171</v>
+        <v>-130466.3451131709</v>
       </c>
       <c r="O6" t="n">
         <v>-92886.2358182969</v>
       </c>
       <c r="P6" t="n">
-        <v>-92886.23581829689</v>
+        <v>-92886.23581829696</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26704,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>162.7373846812078</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>133.0346426218842</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>34.76054579017743</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275.4823331083821</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>346.8284179628004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.8277610464302</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7768665213585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>163.0207600383523</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>83.63276216184536</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>60.8730126800275</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9241472250321</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>882.2223956904123</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>647.6020634880878</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>743.6379293484345</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>674.9245771183485</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>862.5366858288796</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>526.9910873446639</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>443.69906349243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>882.2223956904141</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>909.3727163031798</v>
       </c>
       <c r="N41" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>866.62054248223</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861327</v>
